--- a/MonteCarloResultsBUS6Sub2MDERSCurve.xlsx
+++ b/MonteCarloResultsBUS6Sub2MDERSCurve.xlsx
@@ -148,10 +148,10 @@
     <t>farm</t>
   </si>
   <si>
-    <t>(36.67821381460323, 39.87338329606133)</t>
-  </si>
-  <si>
-    <t>(36.176115753231244, 40.375481357433316)</t>
+    <t>(38.52088324656055, 41.931866918577775)</t>
+  </si>
+  <si>
+    <t>(37.98487152667213, 42.467878638466196)</t>
   </si>
 </sst>
 </file>
@@ -588,28 +588,28 @@
         <v>147</v>
       </c>
       <c r="F2">
-        <v>7.467067641195866</v>
+        <v>7.371418320197964</v>
       </c>
       <c r="G2">
-        <v>2902</v>
+        <v>2864</v>
       </c>
       <c r="H2">
-        <v>5.766264157105423</v>
+        <v>5.461644439755614</v>
       </c>
       <c r="I2">
-        <v>1.29495760821062</v>
+        <v>1.349670122525919</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>190.3587684069612</v>
+        <v>198.4015080113101</v>
       </c>
       <c r="L2">
-        <v>1097.658943255792</v>
+        <v>1083.598493069101</v>
       </c>
       <c r="M2">
-        <v>847.6408310944971</v>
+        <v>802.8617326440752</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -629,28 +629,28 @@
         <v>126</v>
       </c>
       <c r="F3">
-        <v>7.361627650596243</v>
+        <v>7.42844776884932</v>
       </c>
       <c r="G3">
-        <v>2900</v>
+        <v>2870</v>
       </c>
       <c r="H3">
-        <v>5.688761229305579</v>
+        <v>5.492392392159672</v>
       </c>
       <c r="I3">
-        <v>1.294065149486836</v>
+        <v>1.352497643732328</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>163.0522088353414</v>
+        <v>170.4147031102733</v>
       </c>
       <c r="L3">
-        <v>927.5650839751266</v>
+        <v>935.9844188750144</v>
       </c>
       <c r="M3">
-        <v>716.783914892503</v>
+        <v>692.0414414121186</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -670,28 +670,28 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>7.295472298664582</v>
+        <v>7.317252841704606</v>
       </c>
       <c r="G4">
-        <v>2898</v>
+        <v>2870</v>
       </c>
       <c r="H4">
-        <v>5.641529821017021</v>
+        <v>5.41017788505128</v>
       </c>
       <c r="I4">
-        <v>1.293172690763052</v>
+        <v>1.352497643732328</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.293172690763052</v>
+        <v>1.352497643732328</v>
       </c>
       <c r="L4">
-        <v>7.295472298664582</v>
+        <v>7.317252841704606</v>
       </c>
       <c r="M4">
-        <v>5.641529821017021</v>
+        <v>5.41017788505128</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -711,28 +711,28 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>7.386586224796434</v>
+        <v>7.363302375792443</v>
       </c>
       <c r="G5">
-        <v>2907</v>
+        <v>2868</v>
       </c>
       <c r="H5">
-        <v>5.69430331261397</v>
+        <v>5.44802219017837</v>
       </c>
       <c r="I5">
-        <v>1.29718875502008</v>
+        <v>1.351555136663525</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1.29718875502008</v>
+        <v>1.351555136663525</v>
       </c>
       <c r="L5">
-        <v>7.386586224796434</v>
+        <v>7.363302375792443</v>
       </c>
       <c r="M5">
-        <v>5.69430331261397</v>
+        <v>5.44802219017837</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -752,28 +752,28 @@
         <v>132</v>
       </c>
       <c r="F6">
-        <v>8.213562590338098</v>
+        <v>8.31199416601871</v>
       </c>
       <c r="G6">
-        <v>2903</v>
+        <v>2876</v>
       </c>
       <c r="H6">
-        <v>6.340542116757725</v>
+        <v>6.132841314426879</v>
       </c>
       <c r="I6">
-        <v>1.295403837572512</v>
+        <v>1.355325164938737</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>170.9933065595716</v>
+        <v>178.9029217719133</v>
       </c>
       <c r="L6">
-        <v>1084.190261924629</v>
+        <v>1097.18322991447</v>
       </c>
       <c r="M6">
-        <v>836.9515594120197</v>
+        <v>809.5350535043481</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,28 +793,28 @@
         <v>147</v>
       </c>
       <c r="F7">
-        <v>8.347910553829546</v>
+        <v>8.501961772048368</v>
       </c>
       <c r="G7">
-        <v>2954</v>
+        <v>2923</v>
       </c>
       <c r="H7">
-        <v>6.332995108710905</v>
+        <v>6.17213919955068</v>
       </c>
       <c r="I7">
-        <v>1.318161535029005</v>
+        <v>1.377474081055608</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>193.7697456492637</v>
+        <v>202.4886899151743</v>
       </c>
       <c r="L7">
-        <v>1227.142851412943</v>
+        <v>1249.78838049111</v>
       </c>
       <c r="M7">
-        <v>930.950280980503</v>
+        <v>907.3044623339499</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -834,28 +834,28 @@
         <v>1</v>
       </c>
       <c r="F8">
-        <v>8.447018119140049</v>
+        <v>8.414732436597731</v>
       </c>
       <c r="G8">
-        <v>2986</v>
+        <v>2924</v>
       </c>
       <c r="H8">
-        <v>6.339506900533439</v>
+        <v>6.10672442902202</v>
       </c>
       <c r="I8">
-        <v>1.332440874609549</v>
+        <v>1.377945334590009</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.332440874609549</v>
+        <v>1.377945334590009</v>
       </c>
       <c r="L8">
-        <v>8.447018119140049</v>
+        <v>8.414732436597731</v>
       </c>
       <c r="M8">
-        <v>6.339506900533439</v>
+        <v>6.10672442902202</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -875,28 +875,28 @@
         <v>79</v>
       </c>
       <c r="F9">
-        <v>8.126486045857019</v>
+        <v>8.339491127254979</v>
       </c>
       <c r="G9">
-        <v>2900</v>
+        <v>2874</v>
       </c>
       <c r="H9">
-        <v>6.2798121478502</v>
+        <v>6.157411333345534</v>
       </c>
       <c r="I9">
-        <v>1.294065149486836</v>
+        <v>1.354382657869934</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>102.2311468094601</v>
+        <v>106.9962299717248</v>
       </c>
       <c r="L9">
-        <v>641.9923976227045</v>
+        <v>658.8197990531434</v>
       </c>
       <c r="M9">
-        <v>496.1051596801658</v>
+        <v>486.4354953342972</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -916,28 +916,28 @@
         <v>1</v>
       </c>
       <c r="F10">
-        <v>10.20981763576171</v>
+        <v>10.63626539872964</v>
       </c>
       <c r="G10">
-        <v>2958</v>
+        <v>2932</v>
       </c>
       <c r="H10">
-        <v>7.73502411147464</v>
+        <v>7.697870114633113</v>
       </c>
       <c r="I10">
-        <v>1.319946452476573</v>
+        <v>1.381715362865221</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.319946452476573</v>
+        <v>1.381715362865221</v>
       </c>
       <c r="L10">
-        <v>10.20981763576171</v>
+        <v>10.63626539872964</v>
       </c>
       <c r="M10">
-        <v>7.73502411147464</v>
+        <v>7.697870114633113</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -957,28 +957,28 @@
         <v>76</v>
       </c>
       <c r="F11">
-        <v>9.763548294312553</v>
+        <v>10.48732659047415</v>
       </c>
       <c r="G11">
-        <v>2898</v>
+        <v>2875</v>
       </c>
       <c r="H11">
-        <v>7.550073059887657</v>
+        <v>7.740558965212569</v>
       </c>
       <c r="I11">
-        <v>1.293172690763052</v>
+        <v>1.354853911404336</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>98.28112449799198</v>
+        <v>102.9688972667295</v>
       </c>
       <c r="L11">
-        <v>742.0296703677541</v>
+        <v>797.0368208760351</v>
       </c>
       <c r="M11">
-        <v>573.8055525514619</v>
+        <v>588.2824813561552</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -998,28 +998,28 @@
         <v>79</v>
       </c>
       <c r="F12">
-        <v>10.14439903404512</v>
+        <v>10.84743884553431</v>
       </c>
       <c r="G12">
-        <v>3219</v>
+        <v>3196</v>
       </c>
       <c r="H12">
-        <v>7.062316941688445</v>
+        <v>7.202210647754633</v>
       </c>
       <c r="I12">
-        <v>1.436412315930388</v>
+        <v>1.50612629594722</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>113.4765729585007</v>
+        <v>118.9839773798303</v>
       </c>
       <c r="L12">
-        <v>801.4075236895642</v>
+        <v>856.9476687972106</v>
       </c>
       <c r="M12">
-        <v>557.9230383933872</v>
+        <v>568.974641172616</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1039,28 +1039,28 @@
         <v>76</v>
       </c>
       <c r="F13">
-        <v>10.24586934339455</v>
+        <v>10.8950341608467</v>
       </c>
       <c r="G13">
-        <v>3229</v>
+        <v>3205</v>
       </c>
       <c r="H13">
-        <v>7.110868132098846</v>
+        <v>7.213498436604276</v>
       </c>
       <c r="I13">
-        <v>1.440874609549308</v>
+        <v>1.510367577756833</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>109.5064703257474</v>
+        <v>114.7879359095193</v>
       </c>
       <c r="L13">
-        <v>778.6860700979855</v>
+        <v>828.0225962243495</v>
       </c>
       <c r="M13">
-        <v>540.4259780395123</v>
+        <v>548.2258811819249</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1080,28 +1080,28 @@
         <v>1</v>
       </c>
       <c r="F14">
-        <v>11.21534851584936</v>
+        <v>11.74624383926375</v>
       </c>
       <c r="G14">
-        <v>3487</v>
+        <v>3444</v>
       </c>
       <c r="H14">
-        <v>7.207799261261374</v>
+        <v>7.237377882380278</v>
       </c>
       <c r="I14">
-        <v>1.556001784917448</v>
+        <v>1.622997172478793</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.556001784917448</v>
+        <v>1.622997172478793</v>
       </c>
       <c r="L14">
-        <v>11.21534851584936</v>
+        <v>11.74624383926375</v>
       </c>
       <c r="M14">
-        <v>7.207799261261374</v>
+        <v>7.237377882380278</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -1121,28 +1121,28 @@
         <v>79</v>
       </c>
       <c r="F15">
-        <v>10.22972936310565</v>
+        <v>10.24147735122762</v>
       </c>
       <c r="G15">
-        <v>3629</v>
+        <v>3478</v>
       </c>
       <c r="H15">
-        <v>6.317118628470585</v>
+        <v>6.248537935395345</v>
       </c>
       <c r="I15">
-        <v>1.619366354306113</v>
+        <v>1.639019792648445</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>127.929941990183</v>
+        <v>129.4825636192271</v>
       </c>
       <c r="L15">
-        <v>808.148619685346</v>
+        <v>809.076710746982</v>
       </c>
       <c r="M15">
-        <v>499.0523716491762</v>
+        <v>493.6344968962322</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1162,28 +1162,28 @@
         <v>1</v>
       </c>
       <c r="F16">
-        <v>10.49435968713941</v>
+        <v>10.61233894270542</v>
       </c>
       <c r="G16">
-        <v>3695</v>
+        <v>3574</v>
       </c>
       <c r="H16">
-        <v>6.3647794475993</v>
+        <v>6.300890664919108</v>
       </c>
       <c r="I16">
-        <v>1.648817492190986</v>
+        <v>1.68426013195099</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.648817492190986</v>
+        <v>1.68426013195099</v>
       </c>
       <c r="L16">
-        <v>10.49435968713941</v>
+        <v>10.61233894270542</v>
       </c>
       <c r="M16">
-        <v>6.3647794475993</v>
+        <v>6.300890664919108</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1203,28 +1203,28 @@
         <v>76</v>
       </c>
       <c r="F17">
-        <v>10.3151126747781</v>
+        <v>10.28120131816876</v>
       </c>
       <c r="G17">
-        <v>3633</v>
+        <v>3483</v>
       </c>
       <c r="H17">
-        <v>6.36283168295561</v>
+        <v>6.263769508226848</v>
       </c>
       <c r="I17">
-        <v>1.621151271753681</v>
+        <v>1.641376060320452</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>123.2074966532798</v>
+        <v>124.7445805843544</v>
       </c>
       <c r="L17">
-        <v>783.948563283136</v>
+        <v>781.3713001808259</v>
       </c>
       <c r="M17">
-        <v>483.5752079046264</v>
+        <v>476.0464826252405</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1244,28 +1244,28 @@
         <v>1</v>
       </c>
       <c r="F18">
-        <v>10.21241436221848</v>
+        <v>10.384868231269</v>
       </c>
       <c r="G18">
-        <v>3627</v>
+        <v>3488</v>
       </c>
       <c r="H18">
-        <v>6.309903663008443</v>
+        <v>6.317858482440599</v>
       </c>
       <c r="I18">
-        <v>1.618473895582329</v>
+        <v>1.64373232799246</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.618473895582329</v>
+        <v>1.64373232799246</v>
       </c>
       <c r="L18">
-        <v>10.21241436221848</v>
+        <v>10.384868231269</v>
       </c>
       <c r="M18">
-        <v>6.309903663008443</v>
+        <v>6.317858482440599</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1285,28 +1285,28 @@
         <v>1</v>
       </c>
       <c r="F19">
-        <v>11.34544080449848</v>
+        <v>11.4159614464458</v>
       </c>
       <c r="G19">
-        <v>3946</v>
+        <v>3781</v>
       </c>
       <c r="H19">
-        <v>6.443267319533981</v>
+        <v>6.4069479474631</v>
       </c>
       <c r="I19">
-        <v>1.760821062025881</v>
+        <v>1.781809613572102</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.760821062025881</v>
+        <v>1.781809613572102</v>
       </c>
       <c r="L19">
-        <v>11.34544080449848</v>
+        <v>11.4159614464458</v>
       </c>
       <c r="M19">
-        <v>6.443267319533981</v>
+        <v>6.4069479474631</v>
       </c>
     </row>
     <row r="20" spans="1:19">
@@ -1326,28 +1326,28 @@
         <v>79</v>
       </c>
       <c r="F20">
-        <v>11.80623456253604</v>
+        <v>12.39498951216258</v>
       </c>
       <c r="G20">
-        <v>3660</v>
+        <v>3575</v>
       </c>
       <c r="H20">
-        <v>7.228899359192151</v>
+        <v>7.357249718827689</v>
       </c>
       <c r="I20">
-        <v>1.633199464524766</v>
+        <v>1.684731385485391</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>129.0227576974565</v>
+        <v>133.0937794533459</v>
       </c>
       <c r="L20">
-        <v>932.6925304403475</v>
+        <v>979.2041714608437</v>
       </c>
       <c r="M20">
-        <v>571.0830493761799</v>
+        <v>581.2227277873875</v>
       </c>
     </row>
     <row r="21" spans="1:19">
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="F21">
-        <v>12.09439198562545</v>
+        <v>12.62355898840928</v>
       </c>
       <c r="G21">
-        <v>3750</v>
+        <v>3640</v>
       </c>
       <c r="H21">
-        <v>7.22760865060977</v>
+        <v>7.359118728957278</v>
       </c>
       <c r="I21">
-        <v>1.673360107095047</v>
+        <v>1.715362865221489</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.673360107095047</v>
+        <v>1.715362865221489</v>
       </c>
       <c r="L21">
-        <v>12.09439198562545</v>
+        <v>12.62355898840928</v>
       </c>
       <c r="M21">
-        <v>7.22760865060977</v>
+        <v>7.359118728957278</v>
       </c>
     </row>
     <row r="22" spans="1:19">
@@ -1408,28 +1408,28 @@
         <v>1</v>
       </c>
       <c r="F22">
-        <v>11.76360982303468</v>
+        <v>12.41449192126643</v>
       </c>
       <c r="G22">
-        <v>3661</v>
+        <v>3571</v>
       </c>
       <c r="H22">
-        <v>7.20083300011492</v>
+        <v>7.377079769512006</v>
       </c>
       <c r="I22">
-        <v>1.633645693886658</v>
+        <v>1.682846371347785</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.633645693886658</v>
+        <v>1.682846371347785</v>
       </c>
       <c r="L22">
-        <v>11.76360982303468</v>
+        <v>12.41449192126643</v>
       </c>
       <c r="M22">
-        <v>7.20083300011492</v>
+        <v>7.377079769512006</v>
       </c>
     </row>
     <row r="23" spans="1:19">
@@ -1449,28 +1449,28 @@
         <v>76</v>
       </c>
       <c r="F23">
-        <v>11.85797664583575</v>
+        <v>12.40397839045271</v>
       </c>
       <c r="G23">
-        <v>3665</v>
+        <v>3573</v>
       </c>
       <c r="H23">
-        <v>7.250675487944861</v>
+        <v>7.366706449633544</v>
       </c>
       <c r="I23">
-        <v>1.635430611334226</v>
+        <v>1.683788878416588</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>124.2927264614012</v>
+        <v>127.9679547596607</v>
       </c>
       <c r="L23">
-        <v>901.206225083517</v>
+        <v>942.7023576744061</v>
       </c>
       <c r="M23">
-        <v>551.0513370838094</v>
+        <v>559.8696901721494</v>
       </c>
     </row>
     <row r="24" spans="1:19">
@@ -1490,28 +1490,28 @@
         <v>1</v>
       </c>
       <c r="F24">
-        <v>12.70487467114965</v>
+        <v>13.55117374673068</v>
       </c>
       <c r="G24">
-        <v>3907</v>
+        <v>3841</v>
       </c>
       <c r="H24">
-        <v>7.287336610710613</v>
+        <v>7.486485470076155</v>
       </c>
       <c r="I24">
-        <v>1.743418116912093</v>
+        <v>1.810084825636192</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.743418116912093</v>
+        <v>1.810084825636192</v>
       </c>
       <c r="L24">
-        <v>12.70487467114965</v>
+        <v>13.55117374673068</v>
       </c>
       <c r="M24">
-        <v>7.287336610710613</v>
+        <v>7.486485470076155</v>
       </c>
     </row>
     <row r="25" spans="1:19">
@@ -1528,25 +1528,25 @@
         <v>1183</v>
       </c>
       <c r="K25">
-        <v>1.405747720854301</v>
+        <v>1.459542306457408</v>
       </c>
       <c r="L25">
-        <v>9.16300767114685</v>
+        <v>9.413538577795778</v>
       </c>
       <c r="M25">
-        <v>6.518244728562183</v>
+        <v>6.449651055778068</v>
       </c>
       <c r="N25">
-        <v>38.27579855533233</v>
+        <v>40.22637508256916</v>
       </c>
       <c r="O25">
-        <v>2241</v>
+        <v>2122</v>
       </c>
       <c r="P25">
         <v>0.02</v>
       </c>
       <c r="Q25">
-        <v>0.02129529065985877</v>
+        <v>0.02163130269970093</v>
       </c>
       <c r="R25" t="s">
         <v>44</v>

--- a/MonteCarloResultsBUS6Sub2MDERSCurve.xlsx
+++ b/MonteCarloResultsBUS6Sub2MDERSCurve.xlsx
@@ -148,10 +148,10 @@
     <t>farm</t>
   </si>
   <si>
-    <t>(38.52088324656055, 41.931866918577775)</t>
-  </si>
-  <si>
-    <t>(37.98487152667213, 42.467878638466196)</t>
+    <t>(37.181294777696436, 40.42081431790302)</t>
+  </si>
+  <si>
+    <t>(36.67222742137825, 40.92988167422121)</t>
   </si>
 </sst>
 </file>
@@ -588,28 +588,28 @@
         <v>147</v>
       </c>
       <c r="F2">
-        <v>7.371418320197964</v>
+        <v>7.080018653560079</v>
       </c>
       <c r="G2">
-        <v>2864</v>
+        <v>2766</v>
       </c>
       <c r="H2">
-        <v>5.461644439755614</v>
+        <v>5.444396122965397</v>
       </c>
       <c r="I2">
-        <v>1.349670122525919</v>
+        <v>1.300423131170663</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>198.4015080113101</v>
+        <v>191.1622002820874</v>
       </c>
       <c r="L2">
-        <v>1083.598493069101</v>
+        <v>1040.762742073332</v>
       </c>
       <c r="M2">
-        <v>802.8617326440752</v>
+        <v>800.3262300759134</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -629,28 +629,28 @@
         <v>126</v>
       </c>
       <c r="F3">
-        <v>7.42844776884932</v>
+        <v>7.012687979897885</v>
       </c>
       <c r="G3">
-        <v>2870</v>
+        <v>2769</v>
       </c>
       <c r="H3">
-        <v>5.492392392159672</v>
+        <v>5.386777657364681</v>
       </c>
       <c r="I3">
-        <v>1.352497643732328</v>
+        <v>1.301833568406206</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>170.4147031102733</v>
+        <v>164.0310296191819</v>
       </c>
       <c r="L3">
-        <v>935.9844188750144</v>
+        <v>883.5986854671336</v>
       </c>
       <c r="M3">
-        <v>692.0414414121186</v>
+        <v>678.7339848279498</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -670,28 +670,28 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>7.317252841704606</v>
+        <v>7.034776726278477</v>
       </c>
       <c r="G4">
-        <v>2870</v>
+        <v>2772</v>
       </c>
       <c r="H4">
-        <v>5.41017788505128</v>
+        <v>5.397896860315412</v>
       </c>
       <c r="I4">
-        <v>1.352497643732328</v>
+        <v>1.303244005641749</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.352497643732328</v>
+        <v>1.303244005641749</v>
       </c>
       <c r="L4">
-        <v>7.317252841704606</v>
+        <v>7.034776726278477</v>
       </c>
       <c r="M4">
-        <v>5.41017788505128</v>
+        <v>5.397896860315412</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -711,28 +711,28 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>7.363302375792443</v>
+        <v>6.988781674003184</v>
       </c>
       <c r="G5">
-        <v>2868</v>
+        <v>2759</v>
       </c>
       <c r="H5">
-        <v>5.44802219017837</v>
+        <v>5.387871917580563</v>
       </c>
       <c r="I5">
-        <v>1.351555136663525</v>
+        <v>1.297132110954396</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1.351555136663525</v>
+        <v>1.297132110954396</v>
       </c>
       <c r="L5">
-        <v>7.363302375792443</v>
+        <v>6.988781674003184</v>
       </c>
       <c r="M5">
-        <v>5.44802219017837</v>
+        <v>5.387871917580563</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -752,28 +752,28 @@
         <v>132</v>
       </c>
       <c r="F6">
-        <v>8.31199416601871</v>
+        <v>8.027799577124744</v>
       </c>
       <c r="G6">
-        <v>2876</v>
+        <v>2765</v>
       </c>
       <c r="H6">
-        <v>6.132841314426879</v>
+        <v>6.175453779582036</v>
       </c>
       <c r="I6">
-        <v>1.355325164938737</v>
+        <v>1.299952985425482</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>178.9029217719133</v>
+        <v>171.5937940761636</v>
       </c>
       <c r="L6">
-        <v>1097.18322991447</v>
+        <v>1059.669544180466</v>
       </c>
       <c r="M6">
-        <v>809.5350535043481</v>
+        <v>815.1598989048288</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,28 +793,28 @@
         <v>147</v>
       </c>
       <c r="F7">
-        <v>8.501961772048368</v>
+        <v>8.204916629045265</v>
       </c>
       <c r="G7">
-        <v>2923</v>
+        <v>2813</v>
       </c>
       <c r="H7">
-        <v>6.17213919955068</v>
+        <v>6.204002015634297</v>
       </c>
       <c r="I7">
-        <v>1.377474081055608</v>
+        <v>1.32251998119417</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>202.4886899151743</v>
+        <v>194.410437235543</v>
       </c>
       <c r="L7">
-        <v>1249.78838049111</v>
+        <v>1206.122744469654</v>
       </c>
       <c r="M7">
-        <v>907.3044623339499</v>
+        <v>911.9882962982417</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -834,28 +834,28 @@
         <v>1</v>
       </c>
       <c r="F8">
-        <v>8.414732436597731</v>
+        <v>8.348184877066746</v>
       </c>
       <c r="G8">
-        <v>2924</v>
+        <v>2847</v>
       </c>
       <c r="H8">
-        <v>6.10672442902202</v>
+        <v>6.236947394984535</v>
       </c>
       <c r="I8">
-        <v>1.377945334590009</v>
+        <v>1.338504936530324</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.377945334590009</v>
+        <v>1.338504936530324</v>
       </c>
       <c r="L8">
-        <v>8.414732436597731</v>
+        <v>8.348184877066746</v>
       </c>
       <c r="M8">
-        <v>6.10672442902202</v>
+        <v>6.236947394984535</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -875,28 +875,28 @@
         <v>79</v>
       </c>
       <c r="F9">
-        <v>8.339491127254979</v>
+        <v>8.017446242738185</v>
       </c>
       <c r="G9">
-        <v>2874</v>
+        <v>2766</v>
       </c>
       <c r="H9">
-        <v>6.157411333345534</v>
+        <v>6.165259637853984</v>
       </c>
       <c r="I9">
-        <v>1.354382657869934</v>
+        <v>1.300423131170663</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>106.9962299717248</v>
+        <v>102.7334273624824</v>
       </c>
       <c r="L9">
-        <v>658.8197990531434</v>
+        <v>633.3782531763165</v>
       </c>
       <c r="M9">
-        <v>486.4354953342972</v>
+        <v>487.0555113904647</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -916,28 +916,28 @@
         <v>1</v>
       </c>
       <c r="F10">
-        <v>10.63626539872964</v>
+        <v>10.10057830978808</v>
       </c>
       <c r="G10">
-        <v>2932</v>
+        <v>2820</v>
       </c>
       <c r="H10">
-        <v>7.697870114633113</v>
+        <v>7.618414916638033</v>
       </c>
       <c r="I10">
-        <v>1.381715362865221</v>
+        <v>1.325811001410437</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.381715362865221</v>
+        <v>1.325811001410437</v>
       </c>
       <c r="L10">
-        <v>10.63626539872964</v>
+        <v>10.10057830978808</v>
       </c>
       <c r="M10">
-        <v>7.697870114633113</v>
+        <v>7.618414916638033</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -957,28 +957,28 @@
         <v>76</v>
       </c>
       <c r="F11">
-        <v>10.48732659047415</v>
+        <v>9.920804017311095</v>
       </c>
       <c r="G11">
-        <v>2875</v>
+        <v>2763</v>
       </c>
       <c r="H11">
-        <v>7.740558965212569</v>
+        <v>7.637187891719399</v>
       </c>
       <c r="I11">
-        <v>1.354853911404336</v>
+        <v>1.29901269393512</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>102.9688972667295</v>
+        <v>98.72496473906911</v>
       </c>
       <c r="L11">
-        <v>797.0368208760351</v>
+        <v>753.9811053156433</v>
       </c>
       <c r="M11">
-        <v>588.2824813561552</v>
+        <v>580.4262797706743</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -998,28 +998,28 @@
         <v>79</v>
       </c>
       <c r="F12">
-        <v>10.84743884553431</v>
+        <v>10.45902686069752</v>
       </c>
       <c r="G12">
-        <v>3196</v>
+        <v>3068</v>
       </c>
       <c r="H12">
-        <v>7.202210647754633</v>
+        <v>7.251091959812134</v>
       </c>
       <c r="I12">
-        <v>1.50612629594722</v>
+        <v>1.442407146215327</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>118.9839773798303</v>
+        <v>113.9501645510108</v>
       </c>
       <c r="L12">
-        <v>856.9476687972106</v>
+        <v>826.2631219951043</v>
       </c>
       <c r="M12">
-        <v>568.974641172616</v>
+        <v>572.8362648251587</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1039,28 +1039,28 @@
         <v>76</v>
       </c>
       <c r="F13">
-        <v>10.8950341608467</v>
+        <v>10.49287928290437</v>
       </c>
       <c r="G13">
-        <v>3205</v>
+        <v>3078</v>
       </c>
       <c r="H13">
-        <v>7.213498436604276</v>
+        <v>7.25092730173411</v>
       </c>
       <c r="I13">
-        <v>1.510367577756833</v>
+        <v>1.447108603667137</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>114.7879359095193</v>
+        <v>109.9802538787024</v>
       </c>
       <c r="L13">
-        <v>828.0225962243495</v>
+        <v>797.4588255007319</v>
       </c>
       <c r="M13">
-        <v>548.2258811819249</v>
+        <v>551.0704749317923</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1080,28 +1080,28 @@
         <v>1</v>
       </c>
       <c r="F14">
-        <v>11.74624383926375</v>
+        <v>11.39481575358034</v>
       </c>
       <c r="G14">
-        <v>3444</v>
+        <v>3305</v>
       </c>
       <c r="H14">
-        <v>7.237377882380278</v>
+        <v>7.333365539444894</v>
       </c>
       <c r="I14">
-        <v>1.622997172478793</v>
+        <v>1.553831687823225</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.622997172478793</v>
+        <v>1.553831687823225</v>
       </c>
       <c r="L14">
-        <v>11.74624383926375</v>
+        <v>11.39481575358034</v>
       </c>
       <c r="M14">
-        <v>7.237377882380278</v>
+        <v>7.333365539444894</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -1121,28 +1121,28 @@
         <v>79</v>
       </c>
       <c r="F15">
-        <v>10.24147735122762</v>
+        <v>10.13709275045842</v>
       </c>
       <c r="G15">
-        <v>3478</v>
+        <v>3439</v>
       </c>
       <c r="H15">
-        <v>6.248537935395345</v>
+        <v>6.269728490905806</v>
       </c>
       <c r="I15">
-        <v>1.639019792648445</v>
+        <v>1.61683121767748</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>129.4825636192271</v>
+        <v>127.7296661965209</v>
       </c>
       <c r="L15">
-        <v>809.076710746982</v>
+        <v>800.8303272862153</v>
       </c>
       <c r="M15">
-        <v>493.6344968962322</v>
+        <v>495.3085507815587</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1162,28 +1162,28 @@
         <v>1</v>
       </c>
       <c r="F16">
-        <v>10.61233894270542</v>
+        <v>10.6063673157195</v>
       </c>
       <c r="G16">
-        <v>3574</v>
+        <v>3516</v>
       </c>
       <c r="H16">
-        <v>6.300890664919108</v>
+        <v>6.416309237922463</v>
       </c>
       <c r="I16">
-        <v>1.68426013195099</v>
+        <v>1.653032440056418</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.68426013195099</v>
+        <v>1.653032440056418</v>
       </c>
       <c r="L16">
-        <v>10.61233894270542</v>
+        <v>10.6063673157195</v>
       </c>
       <c r="M16">
-        <v>6.300890664919108</v>
+        <v>6.416309237922463</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1203,28 +1203,28 @@
         <v>76</v>
       </c>
       <c r="F17">
-        <v>10.28120131816876</v>
+        <v>10.17745352470793</v>
       </c>
       <c r="G17">
-        <v>3483</v>
+        <v>3443</v>
       </c>
       <c r="H17">
-        <v>6.263769508226848</v>
+        <v>6.287378346515762</v>
       </c>
       <c r="I17">
-        <v>1.641376060320452</v>
+        <v>1.618711800658204</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>124.7445805843544</v>
+        <v>123.0220968500235</v>
       </c>
       <c r="L17">
-        <v>781.3713001808259</v>
+        <v>773.4864678778027</v>
       </c>
       <c r="M17">
-        <v>476.0464826252405</v>
+        <v>477.8407543351979</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1244,28 +1244,28 @@
         <v>1</v>
       </c>
       <c r="F18">
-        <v>10.384868231269</v>
+        <v>10.17946413972811</v>
       </c>
       <c r="G18">
-        <v>3488</v>
+        <v>3439</v>
       </c>
       <c r="H18">
-        <v>6.317858482440599</v>
+        <v>6.295934930270919</v>
       </c>
       <c r="I18">
-        <v>1.64373232799246</v>
+        <v>1.61683121767748</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.64373232799246</v>
+        <v>1.61683121767748</v>
       </c>
       <c r="L18">
-        <v>10.384868231269</v>
+        <v>10.17946413972811</v>
       </c>
       <c r="M18">
-        <v>6.317858482440599</v>
+        <v>6.295934930270919</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1285,28 +1285,28 @@
         <v>1</v>
       </c>
       <c r="F19">
-        <v>11.4159614464458</v>
+        <v>11.48700537454</v>
       </c>
       <c r="G19">
-        <v>3781</v>
+        <v>3736</v>
       </c>
       <c r="H19">
-        <v>6.4069479474631</v>
+        <v>6.539844869284416</v>
       </c>
       <c r="I19">
-        <v>1.781809613572102</v>
+        <v>1.756464503996239</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.781809613572102</v>
+        <v>1.756464503996239</v>
       </c>
       <c r="L19">
-        <v>11.4159614464458</v>
+        <v>11.48700537454</v>
       </c>
       <c r="M19">
-        <v>6.4069479474631</v>
+        <v>6.539844869284416</v>
       </c>
     </row>
     <row r="20" spans="1:19">
@@ -1326,28 +1326,28 @@
         <v>79</v>
       </c>
       <c r="F20">
-        <v>12.39498951216258</v>
+        <v>11.81782393808137</v>
       </c>
       <c r="G20">
-        <v>3575</v>
+        <v>3422</v>
       </c>
       <c r="H20">
-        <v>7.357249718827689</v>
+        <v>7.345561518497684</v>
       </c>
       <c r="I20">
-        <v>1.684731385485391</v>
+        <v>1.608838740009403</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>133.0937794533459</v>
+        <v>127.0982604607428</v>
       </c>
       <c r="L20">
-        <v>979.2041714608437</v>
+        <v>933.6080911084282</v>
       </c>
       <c r="M20">
-        <v>581.2227277873875</v>
+        <v>580.299359961317</v>
       </c>
     </row>
     <row r="21" spans="1:19">
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="F21">
-        <v>12.62355898840928</v>
+        <v>12.06644859375252</v>
       </c>
       <c r="G21">
-        <v>3640</v>
+        <v>3492</v>
       </c>
       <c r="H21">
-        <v>7.359118728957278</v>
+        <v>7.34975262282692</v>
       </c>
       <c r="I21">
-        <v>1.715362865221489</v>
+        <v>1.641748942172073</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.715362865221489</v>
+        <v>1.641748942172073</v>
       </c>
       <c r="L21">
-        <v>12.62355898840928</v>
+        <v>12.06644859375252</v>
       </c>
       <c r="M21">
-        <v>7.359118728957278</v>
+        <v>7.34975262282692</v>
       </c>
     </row>
     <row r="22" spans="1:19">
@@ -1408,28 +1408,28 @@
         <v>1</v>
       </c>
       <c r="F22">
-        <v>12.41449192126643</v>
+        <v>11.94180508561662</v>
       </c>
       <c r="G22">
-        <v>3571</v>
+        <v>3439</v>
       </c>
       <c r="H22">
-        <v>7.377079769512006</v>
+        <v>7.385931787469191</v>
       </c>
       <c r="I22">
-        <v>1.682846371347785</v>
+        <v>1.61683121767748</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.682846371347785</v>
+        <v>1.61683121767748</v>
       </c>
       <c r="L22">
-        <v>12.41449192126643</v>
+        <v>11.94180508561662</v>
       </c>
       <c r="M22">
-        <v>7.377079769512006</v>
+        <v>7.385931787469191</v>
       </c>
     </row>
     <row r="23" spans="1:19">
@@ -1449,28 +1449,28 @@
         <v>76</v>
       </c>
       <c r="F23">
-        <v>12.40397839045271</v>
+        <v>11.72745228941269</v>
       </c>
       <c r="G23">
-        <v>3573</v>
+        <v>3420</v>
       </c>
       <c r="H23">
-        <v>7.366706449633544</v>
+        <v>7.293652344906661</v>
       </c>
       <c r="I23">
-        <v>1.683788878416588</v>
+        <v>1.607898448519041</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>127.9679547596607</v>
+        <v>122.2002820874471</v>
       </c>
       <c r="L23">
-        <v>942.7023576744061</v>
+        <v>891.2863739953641</v>
       </c>
       <c r="M23">
-        <v>559.8696901721494</v>
+        <v>554.3175782129063</v>
       </c>
     </row>
     <row r="24" spans="1:19">
@@ -1490,28 +1490,28 @@
         <v>1</v>
       </c>
       <c r="F24">
-        <v>13.55117374673068</v>
+        <v>12.65676531126945</v>
       </c>
       <c r="G24">
-        <v>3841</v>
+        <v>3690</v>
       </c>
       <c r="H24">
-        <v>7.486485470076155</v>
+        <v>7.295647646902471</v>
       </c>
       <c r="I24">
-        <v>1.810084825636192</v>
+        <v>1.734837799717913</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.810084825636192</v>
+        <v>1.734837799717913</v>
       </c>
       <c r="L24">
-        <v>13.55117374673068</v>
+        <v>12.65676531126945</v>
       </c>
       <c r="M24">
-        <v>7.486485470076155</v>
+        <v>7.295647646902471</v>
       </c>
     </row>
     <row r="25" spans="1:19">
@@ -1528,25 +1528,25 @@
         <v>1183</v>
       </c>
       <c r="K25">
-        <v>1.459542306457408</v>
+        <v>1.406149490450239</v>
       </c>
       <c r="L25">
-        <v>9.413538577795778</v>
+        <v>9.056002768899015</v>
       </c>
       <c r="M25">
-        <v>6.449651055778068</v>
+        <v>6.440284500618314</v>
       </c>
       <c r="N25">
-        <v>40.22637508256916</v>
+        <v>38.80105454779973</v>
       </c>
       <c r="O25">
-        <v>2122</v>
+        <v>2127</v>
       </c>
       <c r="P25">
         <v>0.02</v>
       </c>
       <c r="Q25">
-        <v>0.02163130269970093</v>
+        <v>0.021298597566543</v>
       </c>
       <c r="R25" t="s">
         <v>44</v>
